--- a/Fivetofive Hotel/KIME SUPERMARKET FIVE.xlsx
+++ b/Fivetofive Hotel/KIME SUPERMARKET FIVE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A021670-E925-4575-AF24-557F0790B62E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5C0FA5-79B5-45B2-AA8D-6027E21FE3EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8C0F820B-58BF-44B9-BCA2-E242ACF4AA63}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <r>
       <t>N</t>
@@ -285,6 +285,39 @@
   </si>
   <si>
     <t>SDC002800324/8220</t>
+  </si>
+  <si>
+    <t>SDC002800324/8288</t>
+  </si>
+  <si>
+    <t>SDC002800324/8303</t>
+  </si>
+  <si>
+    <t>SDC002800324/8332</t>
+  </si>
+  <si>
+    <t>SDC002800324/8371</t>
+  </si>
+  <si>
+    <t>SDC002800324/8416</t>
+  </si>
+  <si>
+    <t>SDC002800324/8427</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SDC002800324/8439</t>
+  </si>
+  <si>
+    <t>SDC002800324/8467</t>
+  </si>
+  <si>
+    <t>SDC002800324/8492</t>
+  </si>
+  <si>
+    <t>SDC002800324/8519</t>
   </si>
 </sst>
 </file>
@@ -331,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -635,6 +668,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -662,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,13 +827,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,46 +874,27 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FFB9B-23DF-4031-9906-4B0E38C6DEF3}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:G60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,36 +1228,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1258,11 +1299,11 @@
       <c r="E4" s="4">
         <v>283300</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="54">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="51">
         <v>44588</v>
       </c>
     </row>
@@ -1282,8 +1323,8 @@
       <c r="E5" s="8">
         <v>119320</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="61"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1301,8 +1342,8 @@
       <c r="E6" s="8">
         <v>307700</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
@@ -1320,8 +1361,8 @@
       <c r="E7" s="8">
         <v>165620</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="61"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1339,8 +1380,8 @@
       <c r="E8" s="8">
         <v>425200</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="61"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -1358,8 +1399,8 @@
       <c r="E9" s="8">
         <v>19000</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -1377,8 +1418,8 @@
       <c r="E10" s="12">
         <v>224580</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
@@ -1396,11 +1437,11 @@
       <c r="E11" s="4">
         <v>436940</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f>E11+E12+E13+E14+E15+E16+E17+E18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="51">
         <v>44617</v>
       </c>
     </row>
@@ -1420,8 +1461,8 @@
       <c r="E12" s="8">
         <v>147140</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -1439,8 +1480,8 @@
       <c r="E13" s="8">
         <v>371300</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1458,8 +1499,8 @@
       <c r="E14" s="8">
         <v>191120</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
@@ -1477,8 +1518,8 @@
       <c r="E15" s="8">
         <v>109280</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1496,8 +1537,8 @@
       <c r="E16" s="8">
         <v>335120</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -1515,8 +1556,8 @@
       <c r="E17" s="8">
         <v>227360</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="61"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -1534,8 +1575,8 @@
       <c r="E18" s="12">
         <v>154640</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="64"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
@@ -1553,11 +1594,11 @@
       <c r="E19" s="14">
         <v>170400</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="54">
         <f>E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31</f>
         <v>3594030</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="51">
         <v>44655</v>
       </c>
     </row>
@@ -1577,8 +1618,8 @@
       <c r="E20" s="8">
         <v>171280</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="61"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
@@ -1596,8 +1637,8 @@
       <c r="E21" s="8">
         <v>630340</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="61"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -1615,8 +1656,8 @@
       <c r="E22" s="8">
         <v>451400</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="61"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -1634,8 +1675,8 @@
       <c r="E23" s="8">
         <v>183640</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="61"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -1653,8 +1694,8 @@
       <c r="E24" s="8">
         <v>198780</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="61"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
@@ -1672,8 +1713,8 @@
       <c r="E25" s="8">
         <v>327340</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -1691,8 +1732,8 @@
       <c r="E26" s="8">
         <v>218000</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="61"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
@@ -1710,8 +1751,8 @@
       <c r="E27" s="8">
         <v>205310</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="61"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -1729,8 +1770,8 @@
       <c r="E28" s="8">
         <v>319340</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
@@ -1748,8 +1789,8 @@
       <c r="E29" s="8">
         <v>384100</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -1767,8 +1808,8 @@
       <c r="E30" s="8">
         <v>296100</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
@@ -1786,8 +1827,8 @@
       <c r="E31" s="12">
         <v>38000</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1805,11 +1846,11 @@
       <c r="E32" s="4">
         <v>193400</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="54">
         <f>E46+E45+E44+E43+E42+E41+E40+E39+E38+E37+E36+E35+E34+E33+E32</f>
         <v>2812700</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="51">
         <v>44694</v>
       </c>
     </row>
@@ -1829,8 +1870,8 @@
       <c r="E33" s="8">
         <v>73000</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="61"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -1848,8 +1889,8 @@
       <c r="E34" s="8">
         <v>346250</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="61"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="52"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
@@ -1867,8 +1908,8 @@
       <c r="E35" s="8">
         <v>96000</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="61"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
@@ -1886,8 +1927,8 @@
       <c r="E36" s="8">
         <v>35000</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="61"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
@@ -1905,8 +1946,8 @@
       <c r="E37" s="8">
         <v>9000</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="61"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -1924,8 +1965,8 @@
       <c r="E38" s="8">
         <v>331500</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="61"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
@@ -1943,8 +1984,8 @@
       <c r="E39" s="8">
         <v>9600</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="61"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -1962,8 +2003,8 @@
       <c r="E40" s="8">
         <v>108000</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="61"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
@@ -1981,8 +2022,8 @@
       <c r="E41" s="8">
         <v>10400</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="61"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -2000,8 +2041,8 @@
       <c r="E42" s="8">
         <v>180000</v>
       </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="61"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
@@ -2019,8 +2060,8 @@
       <c r="E43" s="8">
         <v>364050</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="61"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -2038,8 +2079,8 @@
       <c r="E44" s="8">
         <v>345100</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="61"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
@@ -2057,8 +2098,8 @@
       <c r="E45" s="8">
         <v>408400</v>
       </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="52"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -2076,8 +2117,8 @@
       <c r="E46" s="12">
         <v>303000</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="64"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
@@ -2095,11 +2136,13 @@
       <c r="E47" s="32">
         <v>129000</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="54">
         <f>E47+E48+E49+E50+E51+E52+E53+E54+E55+E56+E57+E58+E59+E60</f>
         <v>3063535</v>
       </c>
-      <c r="G47" s="46"/>
+      <c r="G47" s="51">
+        <v>44725</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -2117,10 +2160,10 @@
       <c r="E48" s="33">
         <v>294100</v>
       </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="55"/>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>47</v>
       </c>
@@ -2136,10 +2179,10 @@
       <c r="E49" s="33">
         <v>5200</v>
       </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="55"/>
+      <c r="G49" s="52"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -2155,11 +2198,11 @@
       <c r="E50" s="33">
         <v>126485</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="F50" s="55"/>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2174,11 +2217,11 @@
       <c r="E51" s="33">
         <v>182700</v>
       </c>
-      <c r="F51" s="58"/>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+      <c r="F51" s="55"/>
+      <c r="G51" s="52"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2193,10 +2236,10 @@
       <c r="E52" s="33">
         <v>71200</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="55"/>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -2212,11 +2255,11 @@
       <c r="E53" s="33">
         <v>130600</v>
       </c>
-      <c r="F53" s="58"/>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="F53" s="55"/>
+      <c r="G53" s="52"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -2231,11 +2274,11 @@
       <c r="E54" s="36">
         <v>80300</v>
       </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
+      <c r="F54" s="55"/>
+      <c r="G54" s="52"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -2250,10 +2293,10 @@
       <c r="E55" s="36">
         <v>43600</v>
       </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="47"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="55"/>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -2269,11 +2312,11 @@
       <c r="E56" s="33">
         <v>196000</v>
       </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="47"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="F56" s="55"/>
+      <c r="G56" s="52"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -2288,11 +2331,11 @@
       <c r="E57" s="33">
         <v>480300</v>
       </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="47"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="F57" s="55"/>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -2307,72 +2350,73 @@
       <c r="E58" s="33">
         <v>703510</v>
       </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="55"/>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="33">
         <v>363260</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
+      <c r="F59" s="55"/>
+      <c r="G59" s="52"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="27">
         <v>58</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="72" t="s">
+      <c r="B60" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="43">
         <v>257280</v>
       </c>
-      <c r="F60" s="59"/>
-      <c r="G60" s="48"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="67">
-        <v>57</v>
-      </c>
-      <c r="B61" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="69" t="s">
+      <c r="F60" s="55"/>
+      <c r="G60" s="52"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="28">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="70">
+      <c r="D61" s="47">
         <v>44725</v>
       </c>
-      <c r="E61" s="71">
+      <c r="E61" s="48">
         <v>456620</v>
       </c>
-      <c r="F61" s="57">
-        <f>E61+E62+E63+E64+E65+E66+E67+E68+E69+E70</f>
+      <c r="F61" s="54">
         <v>1796820</v>
       </c>
-      <c r="G61" s="46"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="51">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>9</v>
@@ -2386,12 +2430,12 @@
       <c r="E62" s="33">
         <v>116000</v>
       </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="55"/>
+      <c r="G62" s="52"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>9</v>
@@ -2405,12 +2449,12 @@
       <c r="E63" s="33">
         <v>229800</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="55"/>
+      <c r="G63" s="52"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>9</v>
@@ -2424,12 +2468,15 @@
       <c r="E64" s="36">
         <v>352550</v>
       </c>
-      <c r="F64" s="58"/>
-      <c r="G64" s="47"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="52"/>
+      <c r="I64" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>9</v>
@@ -2443,12 +2490,12 @@
       <c r="E65" s="33">
         <v>167500</v>
       </c>
-      <c r="F65" s="58"/>
-      <c r="G65" s="47"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="52"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>9</v>
@@ -2462,12 +2509,12 @@
       <c r="E66" s="33">
         <v>24300</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="47"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="52"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>9</v>
@@ -2481,12 +2528,12 @@
       <c r="E67" s="33">
         <v>79000</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="47"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="52"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>9</v>
@@ -2500,12 +2547,12 @@
       <c r="E68" s="36">
         <v>17550</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="47"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="52"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>9</v>
@@ -2519,12 +2566,12 @@
       <c r="E69" s="33">
         <v>29000</v>
       </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="47"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="52"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>9</v>
@@ -2538,30 +2585,232 @@
       <c r="E70" s="37">
         <v>324500</v>
       </c>
-      <c r="F70" s="59"/>
-      <c r="G70" s="48"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="31">
+        <v>44743</v>
+      </c>
+      <c r="E71" s="32">
+        <v>621450</v>
+      </c>
+      <c r="F71" s="54">
+        <f>E71+E72+E73+E74+E75+E76</f>
+        <v>1824920</v>
+      </c>
+      <c r="G71" s="51">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="35">
+        <v>44746</v>
+      </c>
+      <c r="E72" s="36">
+        <v>449100</v>
+      </c>
+      <c r="F72" s="55"/>
+      <c r="G72" s="52"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="35">
+        <v>44749</v>
+      </c>
+      <c r="E73" s="36">
+        <v>273850</v>
+      </c>
+      <c r="F73" s="55"/>
+      <c r="G73" s="52"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="49">
+        <v>44753</v>
+      </c>
+      <c r="E74" s="36">
+        <v>140460</v>
+      </c>
+      <c r="F74" s="55"/>
+      <c r="G74" s="52"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="69">
+        <v>73</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="72">
+        <v>44756</v>
+      </c>
+      <c r="E75" s="73">
+        <v>23600</v>
+      </c>
+      <c r="F75" s="55"/>
+      <c r="G75" s="52"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="45">
+        <v>44757</v>
+      </c>
+      <c r="E76" s="50">
+        <v>316460</v>
+      </c>
+      <c r="F76" s="56"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="47">
+        <v>44760</v>
+      </c>
+      <c r="E77" s="48">
+        <v>240400</v>
+      </c>
+      <c r="F77" s="54">
+        <f>E77+E79+E78+E80</f>
+        <v>1234521</v>
+      </c>
+      <c r="G77" s="51"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="35">
+        <v>44763</v>
+      </c>
+      <c r="E78" s="36">
+        <v>348605</v>
+      </c>
+      <c r="F78" s="55"/>
+      <c r="G78" s="52"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="35">
+        <v>44767</v>
+      </c>
+      <c r="E79" s="36">
+        <v>361500</v>
+      </c>
+      <c r="F79" s="55"/>
+      <c r="G79" s="52"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>78</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="45">
+        <v>44770</v>
+      </c>
+      <c r="E80" s="50">
+        <v>284016</v>
+      </c>
+      <c r="F80" s="56"/>
+      <c r="G80" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="F47:F60"/>
-    <mergeCell ref="G47:G60"/>
-    <mergeCell ref="F61:F70"/>
-    <mergeCell ref="G61:G70"/>
+  <mergeCells count="23">
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F32:F46"/>
+    <mergeCell ref="G32:G46"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F4:F10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F19:F31"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F32:F46"/>
-    <mergeCell ref="G32:G46"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="F47:F60"/>
+    <mergeCell ref="G47:G60"/>
+    <mergeCell ref="F61:F70"/>
+    <mergeCell ref="G61:G70"/>
+    <mergeCell ref="F19:F31"/>
+    <mergeCell ref="G19:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
